--- a/app/Licenciatura_em_Meteorologia_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Meteorologia_Pos_Laboral.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Isaura Lurdes Nhalungo</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>Ricardina Manhaia Mate</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>BI</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
     <t>Marta Arone Chiponde</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -291,9 +282,6 @@
     <t>Heriqueta Fernando</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070101266589C</t>
   </si>
   <si>
@@ -318,9 +306,6 @@
     <t>Ilda A. Cala</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110101250064A</t>
   </si>
   <si>
@@ -366,9 +351,6 @@
     <t>Lina Afonso Tchamo</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -390,9 +372,6 @@
     <t>Ancha Nacuela</t>
   </si>
   <si>
-    <t>Distrito de Cuamba</t>
-  </si>
-  <si>
     <t>010101164993B</t>
   </si>
   <si>
@@ -642,9 +621,6 @@
     <t>Luisa Macuacua Novela</t>
   </si>
   <si>
-    <t>Distrito de Namaacha</t>
-  </si>
-  <si>
     <t>100100652360B</t>
   </si>
   <si>
@@ -748,9 +724,6 @@
   </si>
   <si>
     <t>Marta Roberto Jaime</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Katembe</t>
   </si>
   <si>
     <t>110100722786C</t>
@@ -2040,7 +2013,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2056,7 +2029,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2072,7 +2045,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2088,7 +2061,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2104,7 +2077,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2119,9 +2092,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2129,7 +2100,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2140,7 +2111,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2149,7 +2120,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2161,7 +2132,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2169,7 +2140,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2265,7 +2236,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2308,7 +2279,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2635,7 +2606,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2651,7 +2622,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2667,7 +2638,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2683,7 +2654,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2699,7 +2670,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2714,9 +2685,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2724,7 +2693,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2735,7 +2704,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2744,7 +2713,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2756,7 +2725,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2764,7 +2733,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2860,7 +2829,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2903,7 +2872,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3230,7 +3199,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3246,7 +3215,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3262,7 +3231,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3278,7 +3247,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3294,7 +3263,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3309,9 +3278,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3319,7 +3286,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3330,7 +3297,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3339,7 +3306,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3351,7 +3318,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3359,7 +3326,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3455,7 +3422,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3498,7 +3465,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3825,7 +3792,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3841,7 +3808,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3857,7 +3824,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3873,7 +3840,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3889,7 +3856,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3904,9 +3871,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3914,7 +3879,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3925,7 +3890,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3934,7 +3899,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3946,7 +3911,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3954,7 +3919,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4050,7 +4015,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4093,7 +4058,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4420,7 +4385,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4436,7 +4401,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4452,7 +4417,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4468,7 +4433,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4484,7 +4449,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4499,9 +4464,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4509,7 +4472,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4520,7 +4483,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4529,7 +4492,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4541,7 +4504,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4549,7 +4512,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4645,7 +4608,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4688,7 +4651,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5015,7 +4978,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5031,7 +4994,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5047,7 +5010,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5063,7 +5026,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5079,7 +5042,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5094,9 +5057,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5104,7 +5065,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5115,7 +5076,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5124,7 +5085,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5136,7 +5097,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5144,7 +5105,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5240,7 +5201,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5283,7 +5244,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5610,7 +5571,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5626,7 +5587,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5642,7 +5603,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5658,7 +5619,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5674,7 +5635,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5689,9 +5650,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5699,7 +5658,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5710,7 +5669,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5719,7 +5678,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5731,7 +5690,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5739,7 +5698,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5835,7 +5794,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5878,7 +5837,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6205,7 +6164,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6221,7 +6180,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6237,7 +6196,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6253,7 +6212,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6269,7 +6228,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6284,9 +6243,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6294,7 +6251,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6305,7 +6262,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6314,7 +6271,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6326,7 +6283,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6334,7 +6291,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6430,7 +6387,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6473,7 +6430,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6800,7 +6757,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6816,7 +6773,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6832,7 +6789,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6848,7 +6805,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6864,7 +6821,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6879,9 +6836,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6889,7 +6844,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6900,7 +6855,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6909,7 +6864,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6921,7 +6876,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6929,7 +6884,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7025,7 +6980,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7068,7 +7023,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7395,7 +7350,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7411,7 +7366,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7427,7 +7382,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7443,7 +7398,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7459,7 +7414,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7474,9 +7429,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7484,7 +7437,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7495,7 +7448,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7504,7 +7457,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7516,7 +7469,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7524,7 +7477,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7620,7 +7573,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7663,7 +7616,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8069,9 +8022,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8079,7 +8030,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8090,7 +8041,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8099,7 +8050,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8111,7 +8062,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8119,7 +8070,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8215,7 +8166,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8258,7 +8209,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8585,7 +8536,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8601,7 +8552,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8617,7 +8568,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8633,7 +8584,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8649,7 +8600,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8664,9 +8615,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>199</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8674,7 +8623,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8685,7 +8634,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8694,7 +8643,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8706,7 +8655,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8714,7 +8663,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8810,7 +8759,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8853,7 +8802,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9180,7 +9129,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9196,7 +9145,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9212,7 +9161,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9228,7 +9177,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9244,7 +9193,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9259,9 +9208,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9269,7 +9216,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9280,7 +9227,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9289,7 +9236,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9301,7 +9248,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9309,7 +9256,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9405,7 +9352,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9448,7 +9395,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9775,7 +9722,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9791,7 +9738,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9807,7 +9754,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9823,7 +9770,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9839,7 +9786,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9854,9 +9801,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9864,7 +9809,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9875,7 +9820,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9884,7 +9829,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9896,7 +9841,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9904,7 +9849,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10000,7 +9945,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10043,7 +9988,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10370,7 +10315,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10386,7 +10331,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10402,7 +10347,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10418,7 +10363,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10434,7 +10379,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10449,9 +10394,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10459,7 +10402,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10470,7 +10413,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10479,7 +10422,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10491,7 +10434,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10595,7 +10538,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10638,7 +10581,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10965,7 +10908,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10981,7 +10924,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10997,7 +10940,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11013,7 +10956,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11029,7 +10972,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11044,9 +10987,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11054,7 +10995,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11065,7 +11006,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11074,7 +11015,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11086,7 +11027,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11094,7 +11035,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11190,7 +11131,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11233,7 +11174,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11560,7 +11501,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11576,7 +11517,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11592,7 +11533,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11608,7 +11549,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11624,7 +11565,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11639,9 +11580,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>235</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11649,7 +11588,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11660,7 +11599,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11669,7 +11608,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11681,7 +11620,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11689,7 +11628,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11785,7 +11724,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11828,7 +11767,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12155,7 +12094,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12171,7 +12110,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12187,7 +12126,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12203,7 +12142,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12219,7 +12158,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12234,9 +12173,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12244,7 +12181,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12255,7 +12192,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12264,7 +12201,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12276,7 +12213,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12284,7 +12221,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12380,7 +12317,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12423,7 +12360,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12806,7 +12743,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12822,7 +12759,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12838,7 +12775,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12854,7 +12791,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12870,7 +12807,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12885,9 +12822,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12895,7 +12830,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12906,7 +12841,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12915,7 +12850,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12927,7 +12862,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12935,7 +12870,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13031,7 +12966,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13074,7 +13009,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13401,7 +13336,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13417,7 +13352,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13433,7 +13368,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13449,7 +13384,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13465,7 +13400,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13480,9 +13415,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13490,7 +13423,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13501,7 +13434,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13510,7 +13443,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13522,7 +13455,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13530,7 +13463,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13626,7 +13559,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13669,7 +13602,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13996,7 +13929,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14012,7 +13945,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14028,7 +13961,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14044,7 +13977,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14060,7 +13993,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14075,9 +14008,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14085,7 +14016,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14096,7 +14027,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14105,7 +14036,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14117,7 +14048,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14125,7 +14056,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14221,7 +14152,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14264,7 +14195,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14591,7 +14522,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14607,7 +14538,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14623,7 +14554,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14639,7 +14570,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14655,7 +14586,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14670,9 +14601,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14680,7 +14609,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14691,7 +14620,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14700,7 +14629,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14712,7 +14641,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14720,7 +14649,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14816,7 +14745,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14859,7 +14788,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15186,7 +15115,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15202,7 +15131,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15218,7 +15147,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15234,7 +15163,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15250,7 +15179,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15265,9 +15194,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15275,7 +15202,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15286,7 +15213,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15295,7 +15222,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15307,7 +15234,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15315,7 +15242,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15411,7 +15338,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15454,7 +15381,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15781,7 +15708,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15797,7 +15724,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15813,7 +15740,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15829,7 +15756,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15845,7 +15772,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15860,9 +15787,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15870,7 +15795,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15881,7 +15806,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15890,7 +15815,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15902,7 +15827,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16006,7 +15931,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16049,7 +15974,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16376,7 +16301,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16392,7 +16317,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16408,7 +16333,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16424,7 +16349,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16440,7 +16365,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16455,9 +16380,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16465,7 +16388,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16476,7 +16399,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16485,7 +16408,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16497,7 +16420,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16505,7 +16428,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16601,7 +16524,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16644,7 +16567,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
